--- a/parabolic/2025/08/27/parabolic.xlsx
+++ b/parabolic/2025/08/27/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>288A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D2" t="n">
-        <v>1566900</v>
+        <v>1101800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>6366</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>393</v>
+        <v>752</v>
       </c>
       <c r="D3" t="n">
-        <v>569500</v>
+        <v>168700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>7897</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
-        <v>516400</v>
+        <v>1909200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>8704</t>
+          <t>6366</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,16 +551,62 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>986</v>
+        <v>401</v>
       </c>
       <c r="D5" t="n">
-        <v>517700</v>
+        <v>1816800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>7897</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>132</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1257800</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>8704</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>767200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/27/parabolic.xlsx
+++ b/parabolic/2025/08/27/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D2" t="n">
-        <v>1101800</v>
+        <v>3348000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D3" t="n">
-        <v>168700</v>
+        <v>196900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>588</v>
       </c>
       <c r="D4" t="n">
-        <v>1909200</v>
+        <v>107000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6366</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>401</v>
+        <v>161</v>
       </c>
       <c r="D5" t="n">
-        <v>1816800</v>
+        <v>2111000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7897</t>
+          <t>6366</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>401</v>
       </c>
       <c r="D6" t="n">
-        <v>1257800</v>
+        <v>2156600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>8704</t>
+          <t>7049</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,16 +597,62 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1000</v>
+        <v>922</v>
       </c>
       <c r="D7" t="n">
-        <v>767200</v>
+        <v>110900</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7069</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>912</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>7897</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>133</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1412000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/27/parabolic.xlsx
+++ b/parabolic/2025/08/27/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D2" t="n">
-        <v>3348000</v>
+        <v>3760900</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3673</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>750</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
-        <v>196900</v>
+        <v>153500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>588</v>
+        <v>749</v>
       </c>
       <c r="D4" t="n">
-        <v>107000</v>
+        <v>280100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>594</v>
       </c>
       <c r="D5" t="n">
-        <v>2111000</v>
+        <v>140900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6366</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>401</v>
+        <v>159</v>
       </c>
       <c r="D6" t="n">
-        <v>2156600</v>
+        <v>2450900</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7049</t>
+          <t>6366</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>922</v>
+        <v>396</v>
       </c>
       <c r="D7" t="n">
-        <v>110900</v>
+        <v>2698400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7069</t>
+          <t>7049</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="D8" t="n">
-        <v>115000</v>
+        <v>146600</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7897</t>
+          <t>7069</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,16 +643,62 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>133</v>
+        <v>927</v>
       </c>
       <c r="D9" t="n">
-        <v>1412000</v>
+        <v>180900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>7897</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>129</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1712400</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>8202</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>158</v>
+      </c>
+      <c r="D11" t="n">
+        <v>106300</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
